--- a/biology/Zoologie/Candide_(papillon)/Candide_(papillon).xlsx
+++ b/biology/Zoologie/Candide_(papillon)/Candide_(papillon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colias  phicomone
 Le Candide (Colias  phicomone) est une espèce de lépidoptères de la famille des Pieridae et de la sous-famille des Coliadinae.
@@ -512,15 +524,86 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Colias phicomone a été décrite par le naturaliste allemand Eugen Johann Christoph Esper en 1780, sous le nom initial de Papilio phicomone[1].
-Synonymes
-Selon l'INPN[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Colias phicomone a été décrite par le naturaliste allemand Eugen Johann Christoph Esper en 1780, sous le nom initial de Papilio phicomone.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Candide_(papillon)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Candide_(papillon)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon l'INPN :
 Papilio phicomone Esper, 1780
-Colias phicomone oberthueri Verity, 1909
-Sous-espèces
-Funet cite les sous-espèces suivantes[1] :
+Colias phicomone oberthueri Verity, 1909</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Candide_(papillon)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Candide_(papillon)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Funet cite les sous-espèces suivantes :
 Colias phicomone phicomone (Esper, 1780) — dans les Alpes, le Nord de l'Italie et les Carpates.
 Colias phicomone juliana Hospital, 1948 — dans les monts Cantabriques.
 Colias phicomone oberthueri Verity, 1909 — dans les Pyrénées.
@@ -528,146 +611,79 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Candide_(papillon)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Candide_(papillon)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Candide_(papillon)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Candide_(papillon)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En français : le Candide, le Soufré des montagnes[3].
-En anglais : Mountain Clouded Yellow[1].
-En allemand : Alpen-Gelbling ou Grünlicher Heufalter[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En français : le Candide, le Soufré des montagnes.
+En anglais : Mountain Clouded Yellow.
+En allemand : Alpen-Gelbling ou Grünlicher Heufalter.
 En néerlandais : bergluzernevlinder.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Candide_(papillon)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Candide_(papillon)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Candide_(papillon)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Candide_(papillon)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Imago
-Le Candide est un papillon de taille moyenne. Le mâle est de couleur jaune pâle, la femelle presque blanche, tous les deux ont leurs ailes sur les deux faces bordées d'une frange rouge, avec un point noir ou blanc au centre de l'aile antérieure.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Imago</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Candide est un papillon de taille moyenne. Le mâle est de couleur jaune pâle, la femelle presque blanche, tous les deux ont leurs ailes sur les deux faces bordées d'une frange rouge, avec un point noir ou blanc au centre de l'aile antérieure.
 Le revers de l'aile antérieure est blanc verdâtre à apex jaune alors que le revers de l'aile postérieure est jaune envahi de gris.
 			Colias phicomone ♂   MHNT
 			Colias phicomone ♂   △ MHNT
 			Colias phicomone ♀  MHNT
 			Colias phicomone ♀  △ MHNT
-Espèce ressemblante
-Colias nastes lui ressemble mais c'est une espèce circumpolaire, leurs aires de répartition sont donc différentes.
-Chenille
-Les œufs éclosent vite en environ dix jours, et donnent des chenilles bleu-vert à poils courts noirs, ornées d'une fine raie jaune très clair sur les côtés[4]..
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Candide_(papillon)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Candide_(papillon)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-C'est la chenille qui hiverne, le plus souvent sous la neige et directement au pied de sa plante hôte.
-Le Candide vole de juin à août, en une seule génération, parfois deux dans les régions les plus au sud, la seconde génération vole alors en septembre[5].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont Lotus corniculatus, Trifolium repens et Hippocrepis comosa[5].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Candide_(papillon)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Candide_(papillon)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Distribution et biotopes</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aire de répartition
-En Europe, le Candide est présent à haute altitude dans les Pyrénées, les Alpes et les monts Cantabriques. Il serait aussi présent au Cachemire[1]. 
-En France, il est présent dans treize départements des Alpes et des Pyrénées[6]
-Biotope
-Le Candide est inféodé aux prairies alpines et subalpines au-dessus de 1800 mètres d'altitude.
 </t>
         </is>
       </c>
@@ -693,12 +709,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il n'a pas de statut de protection spécifique[réf. souhaitée].
+          <t>Imago</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Espèce ressemblante</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias nastes lui ressemble mais c'est une espèce circumpolaire, leurs aires de répartition sont donc différentes.
 </t>
         </is>
       </c>
@@ -724,10 +750,232 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les œufs éclosent vite en environ dix jours, et donnent des chenilles bleu-vert à poils courts noirs, ornées d'une fine raie jaune très clair sur les côtés..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Candide_(papillon)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Candide_(papillon)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est la chenille qui hiverne, le plus souvent sous la neige et directement au pied de sa plante hôte.
+Le Candide vole de juin à août, en une seule génération, parfois deux dans les régions les plus au sud, la seconde génération vole alors en septembre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Candide_(papillon)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Candide_(papillon)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont Lotus corniculatus, Trifolium repens et Hippocrepis comosa.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Candide_(papillon)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Candide_(papillon)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Distribution et biotopes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Aire de répartition</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Europe, le Candide est présent à haute altitude dans les Pyrénées, les Alpes et les monts Cantabriques. Il serait aussi présent au Cachemire. 
+En France, il est présent dans treize départements des Alpes et des Pyrénées
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Candide_(papillon)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Candide_(papillon)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Distribution et biotopes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Candide est inféodé aux prairies alpines et subalpines au-dessus de 1800 mètres d'altitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Candide_(papillon)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Candide_(papillon)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'a pas de statut de protection spécifique[réf. souhaitée].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Candide_(papillon)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Candide_(papillon)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
